--- a/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Fisher.xlsx
+++ b/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Fisher.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.79360919452786e-32</v>
+        <v>1.79360919452786e-032</v>
       </c>
     </row>
   </sheetData>

--- a/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Fisher.xlsx
+++ b/Paper_resultados/Descriptive_analysis/05_Chi_2_Fisher/xlsx/Fisher.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.79360919452786e-032</v>
+        <v>1.79360919452786e-32</v>
       </c>
     </row>
   </sheetData>
